--- a/Linea Base/MentalSync/Linea Base 3/SGCSM-CP.xlsx
+++ b/Linea Base/MentalSync/Linea Base 3/SGCSM-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35D10F-9DFD-4D97-976B-4974ADC12021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA493D3-7D68-4FC4-B740-CDC35C104E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="129">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -386,6 +386,27 @@
   </si>
   <si>
     <t>Lozano &amp; Chavez /Analista</t>
+  </si>
+  <si>
+    <t>Actualización del cronograma de Proyecto</t>
+  </si>
+  <si>
+    <t>Actualización del Documento de Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>SGCSM-DAS.docx</t>
+  </si>
+  <si>
+    <t>Rosillo / Full Stack</t>
+  </si>
+  <si>
+    <t>Actualización del Modelo de Base de datos</t>
+  </si>
+  <si>
+    <t>SGCSM-DMBD.docx</t>
+  </si>
+  <si>
+    <t>Torres &amp; Vera / DB</t>
   </si>
 </sst>
 </file>
@@ -935,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H992"/>
+  <dimension ref="B1:H995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1748,47 +1769,47 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
-        <v>93</v>
+    <row r="41" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="26">
-        <v>45589</v>
-      </c>
-      <c r="G41" s="26">
-        <v>45623</v>
+        <v>25</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="22">
+        <v>45596</v>
+      </c>
+      <c r="G41" s="15">
+        <v>45600</v>
       </c>
       <c r="H41" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
-        <v>96</v>
+    <row r="42" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="26">
-        <v>45589</v>
-      </c>
-      <c r="G42" s="26">
-        <v>45623</v>
+        <v>75</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="22">
+        <v>45596</v>
+      </c>
+      <c r="G42" s="15">
+        <v>45602</v>
       </c>
       <c r="H42" s="23">
         <v>100</v>
@@ -1796,68 +1817,68 @@
     </row>
     <row r="43" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="26">
-        <v>45621</v>
+        <v>127</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="22">
+        <v>45595</v>
       </c>
       <c r="G43" s="15">
-        <v>45624</v>
+        <v>45597</v>
       </c>
       <c r="H43" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>118</v>
+    <row r="44" spans="2:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>121</v>
+        <v>94</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="F44" s="26">
-        <v>45621</v>
-      </c>
-      <c r="G44" s="15">
-        <v>45624</v>
+        <v>45589</v>
+      </c>
+      <c r="G44" s="26">
+        <v>45623</v>
       </c>
       <c r="H44" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="22">
-        <v>45622</v>
-      </c>
-      <c r="G45" s="15">
-        <v>45624</v>
+    <row r="45" spans="2:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="26">
+        <v>45589</v>
+      </c>
+      <c r="G45" s="26">
+        <v>45623</v>
       </c>
       <c r="H45" s="23">
         <v>100</v>
@@ -1865,19 +1886,19 @@
     </row>
     <row r="46" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="22">
-        <v>45622</v>
+        <v>99</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="26">
+        <v>45621</v>
       </c>
       <c r="G46" s="15">
         <v>45624</v>
@@ -1887,35 +1908,101 @@
       </c>
     </row>
     <row r="47" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="26">
+        <v>45621</v>
+      </c>
+      <c r="G47" s="15">
+        <v>45624</v>
+      </c>
+      <c r="H47" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="22">
+        <v>45622</v>
+      </c>
+      <c r="G48" s="15">
+        <v>45624</v>
+      </c>
+      <c r="H48" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="22">
+        <v>45622</v>
+      </c>
+      <c r="G49" s="15">
+        <v>45624</v>
+      </c>
+      <c r="H49" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C50" s="31">
         <v>45624</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-    </row>
-    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2844,12 +2931,15 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C50:H50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
